--- a/output/CSHG_04806420000110.xlsx
+++ b/output/CSHG_04806420000110.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>13.99669517170233</v>
+        <v>13.98140615772986</v>
       </c>
       <c r="C192">
-        <v>0.07549458665596775</v>
+        <v>0.07439812829801373</v>
       </c>
     </row>
   </sheetData>

--- a/output/CSHG_04806420000110.xlsx
+++ b/output/CSHG_04806420000110.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CSHG VERDE AM  BETA 14 FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>-0.01353270873981738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.05015142963129038</v>
-      </c>
-      <c r="C3">
         <v>0.06455778000480206</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.05738967268974693</v>
-      </c>
-      <c r="C4">
         <v>0.006892570780004492</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.03903981215306285</v>
-      </c>
-      <c r="C5">
         <v>-0.01735392449030304</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.02410316984817484</v>
-      </c>
-      <c r="C6">
         <v>-0.01437542828502092</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>-0.005081801102508554</v>
-      </c>
-      <c r="C7">
         <v>-0.02849807696133788</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.001379028096770929</v>
-      </c>
-      <c r="C8">
         <v>0.006493829549443442</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.01677513767056049</v>
-      </c>
-      <c r="C9">
         <v>0.01537490714485146</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.09326853624967946</v>
-      </c>
-      <c r="C10">
         <v>0.07523138179240485</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.08738637819523531</v>
-      </c>
-      <c r="C11">
         <v>-0.005380341480074158</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.1401780379822797</v>
-      </c>
-      <c r="C12">
         <v>0.04854912738070549</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.1858965656486538</v>
-      </c>
-      <c r="C13">
         <v>0.04009770943078328</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.2829935295676864</v>
-      </c>
-      <c r="C14">
         <v>0.08187641884764485</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.317433262060828</v>
-      </c>
-      <c r="C15">
         <v>0.02684326280643545</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.3213107073660293</v>
-      </c>
-      <c r="C16">
         <v>0.002943181576527065</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.3947392720008447</v>
-      </c>
-      <c r="C17">
         <v>0.05557251918528072</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.4308764384604145</v>
-      </c>
-      <c r="C18">
         <v>0.02590962137871733</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.4401334022892613</v>
-      </c>
-      <c r="C19">
         <v>0.006469436200100542</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.4569489356690919</v>
-      </c>
-      <c r="C20">
         <v>0.01167637203129956</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.4827218992154403</v>
-      </c>
-      <c r="C21">
         <v>0.01768968212637612</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.5037314884052728</v>
-      </c>
-      <c r="C22">
         <v>0.01416960874520656</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.5407384882614557</v>
-      </c>
-      <c r="C23">
         <v>0.02461011167321447</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.5999814158861023</v>
-      </c>
-      <c r="C24">
         <v>0.03845099481580116</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.6346122712311133</v>
-      </c>
-      <c r="C25">
         <v>0.02164453599345828</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.6940213536103232</v>
-      </c>
-      <c r="C26">
         <v>0.03634444903222578</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.6922016469466366</v>
-      </c>
-      <c r="C27">
         <v>-0.001074193462678896</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.7835312726566956</v>
-      </c>
-      <c r="C28">
         <v>0.05397088808822037</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.8302726990118625</v>
-      </c>
-      <c r="C29">
         <v>0.02620723677333792</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.9474930516770517</v>
-      </c>
-      <c r="C30">
         <v>0.06404529375785084</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>1.058362843947283</v>
-      </c>
-      <c r="C31">
         <v>0.0569294931115456</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>1.161416849336342</v>
-      </c>
-      <c r="C32">
         <v>0.05006600546259077</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>1.241993554765423</v>
-      </c>
-      <c r="C33">
         <v>0.03727957679881233</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>1.247415995034939</v>
-      </c>
-      <c r="C34">
         <v>0.002418579776017005</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>1.313755269265377</v>
-      </c>
-      <c r="C35">
         <v>0.02951802175342522</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>1.356731084844831</v>
-      </c>
-      <c r="C36">
         <v>0.01857405411467683</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>1.392199039492327</v>
-      </c>
-      <c r="C37">
         <v>0.01504964010343679</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>1.393441682489015</v>
-      </c>
-      <c r="C38">
         <v>0.0005194563563371002</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>1.551709628877834</v>
-      </c>
-      <c r="C39">
         <v>0.06612567481662257</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>1.45130806630082</v>
-      </c>
-      <c r="C40">
         <v>-0.03934678203223607</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>1.502973239022122</v>
-      </c>
-      <c r="C41">
         <v>0.02107657272113816</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>1.578770056913275</v>
-      </c>
-      <c r="C42">
         <v>0.03028271205998445</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>1.663947864942719</v>
-      </c>
-      <c r="C43">
         <v>0.03303040059779483</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>1.574545417271706</v>
-      </c>
-      <c r="C44">
         <v>-0.03356013413308101</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>1.45400130147251</v>
-      </c>
-      <c r="C45">
         <v>-0.04682151458292727</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>1.272295910699554</v>
-      </c>
-      <c r="C46">
         <v>-0.07404453724776949</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>1.039052713728426</v>
-      </c>
-      <c r="C47">
         <v>-0.1026464888982355</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>1.230639604784246</v>
-      </c>
-      <c r="C48">
         <v>0.09395877299586908</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>1.356459796864487</v>
-      </c>
-      <c r="C49">
         <v>0.05640543268862608</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>1.471789129303784</v>
-      </c>
-      <c r="C50">
         <v>0.04894177808284894</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>1.483659893847592</v>
-      </c>
-      <c r="C51">
         <v>0.004802498887577444</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>1.560809080755031</v>
-      </c>
-      <c r="C52">
         <v>0.03106270190155658</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>2.003900471903302</v>
-      </c>
-      <c r="C53">
         <v>0.1730278896924364</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>2.130476220319409</v>
-      </c>
-      <c r="C54">
         <v>0.0421371312398735</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>2.148001695241951</v>
-      </c>
-      <c r="C55">
         <v>0.005598341494750025</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>2.34098105875463</v>
-      </c>
-      <c r="C56">
         <v>0.06130217903133839</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>2.496966971152892</v>
-      </c>
-      <c r="C57">
         <v>0.04668865511509557</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>2.583816180358345</v>
-      </c>
-      <c r="C58">
         <v>0.02483558178326772</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>2.585194081132997</v>
-      </c>
-      <c r="C59">
         <v>0.0003844786410094336</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>2.70766827678188</v>
-      </c>
-      <c r="C60">
         <v>0.03416110617090484</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>2.823409060918337</v>
-      </c>
-      <c r="C61">
         <v>0.03121659638788277</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>2.965669367236391</v>
-      </c>
-      <c r="C62">
         <v>0.03720771281634327</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>2.90089254058678</v>
-      </c>
-      <c r="C63">
         <v>-0.01633439922772817</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>2.938234835268072</v>
-      </c>
-      <c r="C64">
         <v>0.009572756566033291</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>2.81147238978323</v>
-      </c>
-      <c r="C65">
         <v>-0.03218762993756663</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>2.839138440312689</v>
-      </c>
-      <c r="C66">
         <v>0.007258625460233814</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>2.96083135998032</v>
-      </c>
-      <c r="C67">
         <v>0.03169797639746474</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>3.094963485932179</v>
-      </c>
-      <c r="C68">
         <v>0.03386463945602713</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>3.136873689840325</v>
-      </c>
-      <c r="C69">
         <v>0.0102345732879241</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>3.152030222587456</v>
-      </c>
-      <c r="C70">
         <v>0.003663764930593283</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>3.303628993948306</v>
-      </c>
-      <c r="C71">
         <v>0.03651196239760912</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>3.432632284413685</v>
-      </c>
-      <c r="C72">
         <v>0.02997546736644385</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>3.498471090252219</v>
-      </c>
-      <c r="C73">
         <v>0.01485320721730998</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>3.529059431106913</v>
-      </c>
-      <c r="C74">
         <v>0.006799719335970789</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>3.534378262123144</v>
-      </c>
-      <c r="C75">
         <v>0.001174378719718261</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>3.744268271600374</v>
-      </c>
-      <c r="C76">
         <v>0.04628859732115798</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>3.84127010205835</v>
-      </c>
-      <c r="C77">
         <v>0.02044610989615347</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>3.844498188946577</v>
-      </c>
-      <c r="C78">
         <v>0.0006667851246009437</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>3.82740019874689</v>
-      </c>
-      <c r="C79">
         <v>-0.003529362491805355</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>3.723764077617632</v>
-      </c>
-      <c r="C80">
         <v>-0.02146830941345212</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>3.786262398377391</v>
-      </c>
-      <c r="C81">
         <v>0.01323061857722574</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>3.827775283867538</v>
-      </c>
-      <c r="C82">
         <v>0.008673340915078098</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>3.897129351465989</v>
-      </c>
-      <c r="C83">
         <v>0.01436563707308491</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>3.850084070047036</v>
-      </c>
-      <c r="C84">
         <v>-0.00960670589696988</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>4.003115709574015</v>
-      </c>
-      <c r="C85">
         <v>0.0315523684366763</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>4.166938180807312</v>
-      </c>
-      <c r="C86">
         <v>0.03274409003169865</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>4.356488835847223</v>
-      </c>
-      <c r="C87">
         <v>0.03668529570258849</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>4.482013377263546</v>
-      </c>
-      <c r="C88">
         <v>0.02343410866018703</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>4.706997102594267</v>
-      </c>
-      <c r="C89">
         <v>0.04104034591813166</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>4.649212721028464</v>
-      </c>
-      <c r="C90">
         <v>-0.01012518151437913</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>4.722210398097731</v>
-      </c>
-      <c r="C91">
         <v>0.0129217433780715</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>4.878668366195225</v>
-      </c>
-      <c r="C92">
         <v>0.02734222568074496</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>4.902230859829248</v>
-      </c>
-      <c r="C93">
         <v>0.004008134524055906</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>4.985234710657226</v>
-      </c>
-      <c r="C94">
         <v>0.01406313185627894</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>5.081428668682472</v>
-      </c>
-      <c r="C95">
         <v>0.01607187732403625</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>5.256134474664865</v>
-      </c>
-      <c r="C96">
         <v>0.02872775716043097</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>5.374014874430825</v>
-      </c>
-      <c r="C97">
         <v>0.0188423698760527</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>5.501488075635464</v>
-      </c>
-      <c r="C98">
         <v>0.01999888668537531</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>5.597350580081342</v>
-      </c>
-      <c r="C99">
         <v>0.01474470203292766</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>5.696770474732253</v>
-      </c>
-      <c r="C100">
         <v>0.01506966977790736</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>5.66052548199962</v>
-      </c>
-      <c r="C101">
         <v>-0.005412309242102564</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>5.773544451261031</v>
-      </c>
-      <c r="C102">
         <v>0.01696847637124876</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>5.477126164484607</v>
-      </c>
-      <c r="C103">
         <v>-0.04376117834751059</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>5.611633834836496</v>
-      </c>
-      <c r="C104">
         <v>0.02076656636540797</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>5.840232861327041</v>
-      </c>
-      <c r="C105">
         <v>0.03457527022837592</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>5.823269711378607</v>
-      </c>
-      <c r="C106">
         <v>-0.002479908256389773</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>5.927773181620549</v>
-      </c>
-      <c r="C107">
         <v>0.0153157466526157</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>6.203443417938789</v>
-      </c>
-      <c r="C108">
         <v>0.03979204126509162</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>6.318620833284361</v>
-      </c>
-      <c r="C109">
         <v>0.01598921635987915</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>6.081072581027164</v>
-      </c>
-      <c r="C110">
         <v>-0.03245806247768035</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>5.98363462304342</v>
-      </c>
-      <c r="C111">
         <v>-0.01376033882844485</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>5.904614895595254</v>
-      </c>
-      <c r="C112">
         <v>-0.01131498592257807</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>5.815535404835048</v>
-      </c>
-      <c r="C113">
         <v>-0.01290144231172607</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>5.92960681280004</v>
-      </c>
-      <c r="C114">
         <v>0.01673696946597447</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>5.910877378730567</v>
-      </c>
-      <c r="C115">
         <v>-0.002702813388326342</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>5.823027879907711</v>
-      </c>
-      <c r="C116">
         <v>-0.01271177218296893</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>5.633918675859129</v>
-      </c>
-      <c r="C117">
         <v>-0.02771631706290778</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>6.11343904288515</v>
-      </c>
-      <c r="C118">
         <v>0.07228312411651938</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>5.952055073777283</v>
-      </c>
-      <c r="C119">
         <v>-0.02268719365343874</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>6.200298732011045</v>
-      </c>
-      <c r="C120">
         <v>0.03570795334607202</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>6.440938289406009</v>
-      </c>
-      <c r="C121">
         <v>0.03342077410276478</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>6.464867872524168</v>
-      </c>
-      <c r="C122">
         <v>0.003215936241835138</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>6.891378380304079</v>
-      </c>
-      <c r="C123">
         <v>0.05713570756553676</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>7.427328713998733</v>
-      </c>
-      <c r="C124">
         <v>0.06791593405688423</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>7.10704374450313</v>
-      </c>
-      <c r="C125">
         <v>-0.03800551519529238</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>7.542191335080696</v>
-      </c>
-      <c r="C126">
         <v>0.05367524886893715</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>7.427712462798631</v>
-      </c>
-      <c r="C127">
         <v>-0.01340158137314584</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>8.001915988323198</v>
-      </c>
-      <c r="C128">
         <v>0.06813278550486856</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>7.899604011404575</v>
-      </c>
-      <c r="C129">
         <v>-0.01136557784490955</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>8.068449036700118</v>
-      </c>
-      <c r="C130">
         <v>0.01897219528859639</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>8.165548401397738</v>
-      </c>
-      <c r="C131">
         <v>0.01070738384310888</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>8.413046315173336</v>
-      </c>
-      <c r="C132">
         <v>0.02700306658550344</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>8.474609021203197</v>
-      </c>
-      <c r="C133">
         <v>0.006540146937408009</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>8.518668819629234</v>
-      </c>
-      <c r="C134">
         <v>0.004650302543085072</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>8.604721993284208</v>
-      </c>
-      <c r="C135">
         <v>0.009040463040117297</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>8.475256271110281</v>
-      </c>
-      <c r="C136">
         <v>-0.01347938256458148</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>8.570584988532733</v>
-      </c>
-      <c r="C137">
         <v>0.01006080624047145</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>8.800458348297317</v>
-      </c>
-      <c r="C138">
         <v>0.02401873658088949</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>8.842743449439093</v>
-      </c>
-      <c r="C139">
         <v>0.004314604443895309</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>9.033477771827791</v>
-      </c>
-      <c r="C140">
         <v>0.01937816660247993</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>9.249806043185583</v>
-      </c>
-      <c r="C141">
         <v>0.02156064689406123</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>9.345503248806651</v>
-      </c>
-      <c r="C142">
         <v>0.009336489414323301</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>9.480160017946968</v>
-      </c>
-      <c r="C143">
         <v>0.01301597089110662</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>9.473262643695211</v>
-      </c>
-      <c r="C144">
         <v>-0.0006581363490582026</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>9.813837720352591</v>
-      </c>
-      <c r="C145">
         <v>0.03251852724827842</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>9.956164830944374</v>
-      </c>
-      <c r="C146">
         <v>0.01316157263243478</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>10.21440754410643</v>
-      </c>
-      <c r="C147">
         <v>0.02357053924861341</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>10.31674822598642</v>
-      </c>
-      <c r="C148">
         <v>0.009125821536044798</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>10.43166454100339</v>
-      </c>
-      <c r="C149">
         <v>0.01015453491782137</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>10.24866991125282</v>
-      </c>
-      <c r="C150">
         <v>-0.01600769766241816</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>10.34696993663636</v>
-      </c>
-      <c r="C151">
         <v>0.008738813224948627</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>10.54242863638678</v>
-      </c>
-      <c r="C152">
         <v>0.01722562947129536</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>10.64580605796603</v>
-      </c>
-      <c r="C153">
         <v>0.008956297226162313</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>10.77389133245237</v>
-      </c>
-      <c r="C154">
         <v>0.01099840353246528</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>10.64378685703992</v>
-      </c>
-      <c r="C155">
         <v>-0.01105025277869176</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>10.56956636949273</v>
-      </c>
-      <c r="C156">
         <v>-0.006374256799652644</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>10.68304674752225</v>
-      </c>
-      <c r="C157">
         <v>0.009808524745469338</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>11.22086338386151</v>
-      </c>
-      <c r="C158">
         <v>0.04603393686268742</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>11.25951099229878</v>
-      </c>
-      <c r="C159">
         <v>0.003162428645451465</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>11.33566494166202</v>
-      </c>
-      <c r="C160">
         <v>0.006211826019086431</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>11.32570194016521</v>
-      </c>
-      <c r="C161">
         <v>-0.0008076582449287883</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>11.00792519975574</v>
-      </c>
-      <c r="C162">
         <v>-0.02578163434034897</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>10.96756291349888</v>
-      </c>
-      <c r="C163">
         <v>-0.003361303937642557</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>11.16697993347839</v>
-      </c>
-      <c r="C164">
         <v>0.01666312693911776</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>11.13327435907719</v>
-      </c>
-      <c r="C165">
         <v>-0.002770249855385987</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>11.08061042071098</v>
-      </c>
-      <c r="C166">
         <v>-0.004340455577583779</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>11.73125289933158</v>
-      </c>
-      <c r="C167">
         <v>0.05385841078900588</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>11.93050877487705</v>
-      </c>
-      <c r="C168">
         <v>0.01565092431365778</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>11.9670055988453</v>
-      </c>
-      <c r="C169">
         <v>0.002822535803012061</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>12.61223425912296</v>
-      </c>
-      <c r="C170">
         <v>0.04975926441607426</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>12.52300450049954</v>
-      </c>
-      <c r="C171">
         <v>-0.006555114827209163</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>12.44657907526894</v>
-      </c>
-      <c r="C172">
         <v>-0.005651512223321276</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>12.57283923612069</v>
-      </c>
-      <c r="C173">
         <v>0.009389760781905343</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>12.81259409616814</v>
-      </c>
-      <c r="C174">
         <v>0.0176643114882995</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>13.17583195902677</v>
-      </c>
-      <c r="C175">
         <v>0.02629758467740695</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>13.36296876689352</v>
-      </c>
-      <c r="C176">
         <v>0.01320111640767507</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>13.55304024475249</v>
-      </c>
-      <c r="C177">
         <v>0.01323343947506728</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>13.8846722541622</v>
-      </c>
-      <c r="C178">
         <v>0.02278781641721195</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>14.07164869001934</v>
-      </c>
-      <c r="C179">
         <v>0.01256167637852101</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>14.11027581877144</v>
-      </c>
-      <c r="C180">
         <v>0.002562900021527481</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>14.83257191422657</v>
-      </c>
-      <c r="C181">
         <v>0.04780164863422409</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>14.79621684057663</v>
-      </c>
-      <c r="C182">
         <v>-0.002296220339114363</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>13.92307602700037</v>
-      </c>
-      <c r="C183">
         <v>-0.05527531195528912</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>9.592985275690904</v>
-      </c>
-      <c r="C184">
         <v>-0.2901607378716705</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>11.2099402170642</v>
-      </c>
-      <c r="C185">
         <v>0.1526439336306771</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>12.13088449881357</v>
-      </c>
-      <c r="C186">
         <v>0.0754257814024577</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>12.70736805420048</v>
-      </c>
-      <c r="C187">
         <v>0.04390287306532947</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>13.38059177605571</v>
-      </c>
-      <c r="C188">
         <v>0.04911400344641126</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>13.45883001875927</v>
-      </c>
-      <c r="C189">
         <v>0.005440544027807581</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>13.01920881736248</v>
-      </c>
-      <c r="C190">
         <v>-0.03040503282951734</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>12.94399874975802</v>
-      </c>
-      <c r="C191">
         <v>-0.005364786885214134</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>13.98140615772986</v>
-      </c>
-      <c r="C192">
-        <v>0.07439812829801373</v>
+        <v>0.06059704273894861</v>
       </c>
     </row>
   </sheetData>
